--- a/数据整理/stocks/A股/创业板/300953-震裕科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300953-震裕科技.xlsx
@@ -827,12 +827,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300953-震裕科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300953-震裕科技.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -811,7 +812,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -822,17 +823,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -842,13 +863,521 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>040007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7397</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>040025</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安科技动力混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3075</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001072</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安智能装备主题股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1804</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006122</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安低碳生活混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1440</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011550</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1014</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008635</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安科技创新混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.14</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0990</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001569</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰信国策驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.17</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0694</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003835</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华沪深港新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.70</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010076</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011551</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010077</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003739</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>新华鑫弘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>42.81</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>8</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>1.59</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300953-震裕科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300953-震裕科技.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1324,7 +1325,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1335,17 +1336,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1355,14 +1376,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.7</v>
+          <t>011236</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根行业睿选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6452</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1371,13 +1414,875 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>005028</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5221</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010149</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浙商智选经济动能混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4592</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>377530</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3896</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>370024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上投摩根核心优选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.44</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3682</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001192</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>上投摩根整合驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1505</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011237</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>上投摩根行业睿选股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1345</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001569</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰信国策驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0946</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>290004</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰信优质生活混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>77.47</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0885</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011550</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0831</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010148</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>浙商智选经济动能混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0664</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>960006</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合H</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.24</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0637</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003501</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰达宏利睿智稳健灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>79.84</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013280</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰达宏利睿智稳健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>79.84</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009486</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011551</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009487</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010076</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003670</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中融物联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010077</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014641</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.24</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>015057</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>上投摩根核心优选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>8</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>1.59</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300953-震裕科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300953-震裕科技.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>3.21</v>
+        <v>2.53</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D3" t="n">
-        <v>1.7</v>
+        <v>3.21</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>8</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>1.59</v>
       </c>
     </row>
@@ -532,6 +549,404 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>014254</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信澳智远三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>36.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5269</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012608</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信澳领先智选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>33.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4750</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007484</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信澳核心科技混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4199</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006257</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信澳先进智造股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.85</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4162</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011188</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信澳星奕混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>23.94</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3471</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009511</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信澳研究优选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1437</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011223</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信澳星奕混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1024</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014255</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>信澳智远三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.96</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0908</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014954</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>信澳研究优选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1419,7 +1834,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1931,7 +2346,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300953-震裕科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300953-震裕科技.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>2.53</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>3.21</v>
+        <v>2.53</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D4" t="n">
-        <v>1.7</v>
+        <v>3.21</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>8</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.59</v>
       </c>
     </row>
@@ -549,6 +566,176 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010149</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浙商智选经济动能混合C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2413</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001449</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商双驱优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0825</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010148</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浙商智选经济动能混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -946,7 +1133,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1834,7 +2021,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2346,7 +2533,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
